--- a/数据表/Fortress.xlsx
+++ b/数据表/Fortress.xlsx
@@ -31,6 +31,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
+    <t>npcid_k</t>
+  </si>
+  <si>
+    <t>nameid</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>avalue_base</t>
+  </si>
+  <si>
+    <t>Attack_range</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>build_time</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>//注释,城的id</t>
   </si>
   <si>
@@ -68,51 +113,6 @@
   </si>
   <si>
     <t>士兵建造时间单位秒</t>
-  </si>
-  <si>
-    <t>npcid_k</t>
-  </si>
-  <si>
-    <t>nameid</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>camp</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>avalue_base</t>
-  </si>
-  <si>
-    <t>Attack_range</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>build_time</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>城市1</t>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1098,121 +1098,121 @@
     <col min="14" max="19" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="27" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
